--- a/Code/Results/Cases/Case_3_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020409989561748</v>
+        <v>1.044584707210908</v>
       </c>
       <c r="D2">
-        <v>1.037708449204999</v>
+        <v>1.051159137089707</v>
       </c>
       <c r="E2">
-        <v>1.034210154092351</v>
+        <v>1.052579708349504</v>
       </c>
       <c r="F2">
-        <v>1.045382855156878</v>
+        <v>1.063719870314751</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05264131607518</v>
+        <v>1.044447491456617</v>
       </c>
       <c r="J2">
-        <v>1.041996919147906</v>
+        <v>1.049649007550051</v>
       </c>
       <c r="K2">
-        <v>1.048666300548511</v>
+        <v>1.053911412809507</v>
       </c>
       <c r="L2">
-        <v>1.045212605093886</v>
+        <v>1.055328049148805</v>
       </c>
       <c r="M2">
-        <v>1.05624416898263</v>
+        <v>1.066437747808337</v>
       </c>
       <c r="N2">
-        <v>1.043476674291813</v>
+        <v>1.051139629537196</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024218587847161</v>
+        <v>1.045405323160177</v>
       </c>
       <c r="D3">
-        <v>1.040506573516284</v>
+        <v>1.051788138586206</v>
       </c>
       <c r="E3">
-        <v>1.037303923116764</v>
+        <v>1.053294774325047</v>
       </c>
       <c r="F3">
-        <v>1.048667830024558</v>
+        <v>1.064480036127936</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053700905345256</v>
+        <v>1.044634618538296</v>
       </c>
       <c r="J3">
-        <v>1.044070118288068</v>
+        <v>1.050117576079361</v>
       </c>
       <c r="K3">
-        <v>1.050646126969618</v>
+        <v>1.054353477440171</v>
       </c>
       <c r="L3">
-        <v>1.047480745636227</v>
+        <v>1.055856240017486</v>
       </c>
       <c r="M3">
-        <v>1.058713680892334</v>
+        <v>1.067013116890383</v>
       </c>
       <c r="N3">
-        <v>1.045552817612553</v>
+        <v>1.051608863487563</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026640422666357</v>
+        <v>1.045937104344413</v>
       </c>
       <c r="D4">
-        <v>1.042289157388799</v>
+        <v>1.05219584213004</v>
       </c>
       <c r="E4">
-        <v>1.039276727975457</v>
+        <v>1.053758529399796</v>
       </c>
       <c r="F4">
-        <v>1.050762247393691</v>
+        <v>1.064973012575787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054367268815732</v>
+        <v>1.044754943806421</v>
       </c>
       <c r="J4">
-        <v>1.045386369785098</v>
+        <v>1.050420869894402</v>
       </c>
       <c r="K4">
-        <v>1.051902635831526</v>
+        <v>1.054639527564404</v>
       </c>
       <c r="L4">
-        <v>1.048923146719821</v>
+        <v>1.05619839885712</v>
       </c>
       <c r="M4">
-        <v>1.060284314911471</v>
+        <v>1.067385849954714</v>
       </c>
       <c r="N4">
-        <v>1.046870938337685</v>
+        <v>1.051912588014609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027648667549218</v>
+        <v>1.046160851893282</v>
       </c>
       <c r="D5">
-        <v>1.043032025290681</v>
+        <v>1.052367405772294</v>
       </c>
       <c r="E5">
-        <v>1.040099327031256</v>
+        <v>1.053953743686296</v>
       </c>
       <c r="F5">
-        <v>1.051635480125169</v>
+        <v>1.065180520694473</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054642877672258</v>
+        <v>1.044805346189354</v>
       </c>
       <c r="J5">
-        <v>1.045933822460608</v>
+        <v>1.05054839683712</v>
       </c>
       <c r="K5">
-        <v>1.052425123431547</v>
+        <v>1.054759782769839</v>
       </c>
       <c r="L5">
-        <v>1.049523639777846</v>
+        <v>1.056342332811121</v>
       </c>
       <c r="M5">
-        <v>1.06093823296558</v>
+        <v>1.067542648354779</v>
       </c>
       <c r="N5">
-        <v>1.047419168458788</v>
+        <v>1.052040296060214</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027817384583662</v>
+        <v>1.046198430987721</v>
       </c>
       <c r="D6">
-        <v>1.043156377973058</v>
+        <v>1.052396221686969</v>
       </c>
       <c r="E6">
-        <v>1.0402370535812</v>
+        <v>1.053986535722533</v>
       </c>
       <c r="F6">
-        <v>1.051781679798024</v>
+        <v>1.065215377453508</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054688890241758</v>
+        <v>1.044813798254882</v>
       </c>
       <c r="J6">
-        <v>1.046025400328681</v>
+        <v>1.050569810434616</v>
       </c>
       <c r="K6">
-        <v>1.052512518079906</v>
+        <v>1.054779974091524</v>
       </c>
       <c r="L6">
-        <v>1.049624123914967</v>
+        <v>1.056366505209782</v>
       </c>
       <c r="M6">
-        <v>1.061047659315325</v>
+        <v>1.067568981393574</v>
       </c>
       <c r="N6">
-        <v>1.047510876377938</v>
+        <v>1.052061740067475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026653933372931</v>
+        <v>1.04594009333868</v>
       </c>
       <c r="D7">
-        <v>1.042299109063924</v>
+        <v>1.052198133925611</v>
       </c>
       <c r="E7">
-        <v>1.039287745929061</v>
+        <v>1.053761136876351</v>
       </c>
       <c r="F7">
-        <v>1.050773943834074</v>
+        <v>1.064975784287251</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054370969210537</v>
+        <v>1.044755618003051</v>
       </c>
       <c r="J7">
-        <v>1.045393707867108</v>
+        <v>1.050422573830078</v>
       </c>
       <c r="K7">
-        <v>1.051909639750976</v>
+        <v>1.054641134423154</v>
       </c>
       <c r="L7">
-        <v>1.048931193495748</v>
+        <v>1.056200321756494</v>
       </c>
       <c r="M7">
-        <v>1.060293077442852</v>
+        <v>1.067387944706252</v>
       </c>
       <c r="N7">
-        <v>1.046878286840613</v>
+        <v>1.051914294370069</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021706124762718</v>
+        <v>1.044861873976339</v>
       </c>
       <c r="D8">
-        <v>1.038659988553502</v>
+        <v>1.051371565514956</v>
       </c>
       <c r="E8">
-        <v>1.03526184466223</v>
+        <v>1.052821147643609</v>
       </c>
       <c r="F8">
-        <v>1.046499609610252</v>
+        <v>1.063976543216177</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053003447282755</v>
+        <v>1.044510888505213</v>
       </c>
       <c r="J8">
-        <v>1.042702883049265</v>
+        <v>1.049807341215963</v>
       </c>
       <c r="K8">
-        <v>1.049340561976345</v>
+        <v>1.05406080879422</v>
       </c>
       <c r="L8">
-        <v>1.045984451325058</v>
+        <v>1.055506473272832</v>
       </c>
       <c r="M8">
-        <v>1.057084504448929</v>
+        <v>1.066632106254767</v>
       </c>
       <c r="N8">
-        <v>1.044183640742887</v>
+        <v>1.051298188055074</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.01264722663996</v>
+        <v>1.042968029646782</v>
       </c>
       <c r="D9">
-        <v>1.032025043688447</v>
+        <v>1.049920473141691</v>
       </c>
       <c r="E9">
-        <v>1.027936082793026</v>
+        <v>1.051172970521424</v>
       </c>
       <c r="F9">
-        <v>1.038719305598431</v>
+        <v>1.062224258667227</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050442371265857</v>
+        <v>1.044073869553238</v>
       </c>
       <c r="J9">
-        <v>1.037761149617238</v>
+        <v>1.04872403987588</v>
       </c>
       <c r="K9">
-        <v>1.044619058869261</v>
+        <v>1.053038299358119</v>
       </c>
       <c r="L9">
-        <v>1.040591612024653</v>
+        <v>1.054286833778494</v>
       </c>
       <c r="M9">
-        <v>1.051213940638111</v>
+        <v>1.065303597499149</v>
       </c>
       <c r="N9">
-        <v>1.039234889482562</v>
+        <v>1.050213348302832</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006358536452267</v>
+        <v>1.041709690055002</v>
       </c>
       <c r="D10">
-        <v>1.02744058229187</v>
+        <v>1.048956841397775</v>
       </c>
       <c r="E10">
-        <v>1.02288342084773</v>
+        <v>1.050079822014488</v>
       </c>
       <c r="F10">
-        <v>1.033351453934421</v>
+        <v>1.061061914963809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04862765351717</v>
+        <v>1.04377868812741</v>
       </c>
       <c r="J10">
-        <v>1.034322127703967</v>
+        <v>1.04800247170155</v>
       </c>
       <c r="K10">
-        <v>1.041331454700368</v>
+        <v>1.052356776594583</v>
       </c>
       <c r="L10">
-        <v>1.036851444747016</v>
+        <v>1.05347585795932</v>
       </c>
       <c r="M10">
-        <v>1.047143562092343</v>
+        <v>1.064420296798249</v>
       </c>
       <c r="N10">
-        <v>1.035790983763714</v>
+        <v>1.049490755418929</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.003571395517655</v>
+        <v>1.041165840355169</v>
       </c>
       <c r="D11">
-        <v>1.02541447707428</v>
+        <v>1.048540495080731</v>
       </c>
       <c r="E11">
-        <v>1.020652427033931</v>
+        <v>1.049607839012735</v>
       </c>
       <c r="F11">
-        <v>1.030980886842255</v>
+        <v>1.060560020870199</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047815075058379</v>
+        <v>1.043649971511835</v>
       </c>
       <c r="J11">
-        <v>1.032796351324098</v>
+        <v>1.04769019243444</v>
       </c>
       <c r="K11">
-        <v>1.039872517692767</v>
+        <v>1.052061723134002</v>
       </c>
       <c r="L11">
-        <v>1.03519510264262</v>
+        <v>1.053125218417605</v>
       </c>
       <c r="M11">
-        <v>1.045341279964237</v>
+        <v>1.064038402141622</v>
       </c>
       <c r="N11">
-        <v>1.034263040606376</v>
+        <v>1.049178032679442</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.002526053098451</v>
+        <v>1.040963985455772</v>
       </c>
       <c r="D12">
-        <v>1.024655482519098</v>
+        <v>1.048385984606943</v>
       </c>
       <c r="E12">
-        <v>1.019816973740778</v>
+        <v>1.049432729546504</v>
       </c>
       <c r="F12">
-        <v>1.030093106289185</v>
+        <v>1.060373808854667</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047509101527704</v>
+        <v>1.043602025840192</v>
       </c>
       <c r="J12">
-        <v>1.03222388924469</v>
+        <v>1.047574224155289</v>
       </c>
       <c r="K12">
-        <v>1.039325090884621</v>
+        <v>1.05195213615371</v>
       </c>
       <c r="L12">
-        <v>1.034574111400792</v>
+        <v>1.052995054761019</v>
       </c>
       <c r="M12">
-        <v>1.044665620426706</v>
+        <v>1.063896638424368</v>
       </c>
       <c r="N12">
-        <v>1.033689765565152</v>
+        <v>1.049061899712033</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.002750745884549</v>
+        <v>1.04100727696798</v>
       </c>
       <c r="D13">
-        <v>1.024818583577713</v>
+        <v>1.048419121302361</v>
       </c>
       <c r="E13">
-        <v>1.019996491980706</v>
+        <v>1.049470281764447</v>
       </c>
       <c r="F13">
-        <v>1.030283871094858</v>
+        <v>1.060413742253993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047574923494569</v>
+        <v>1.043612316427238</v>
       </c>
       <c r="J13">
-        <v>1.032346946737994</v>
+        <v>1.047599098538785</v>
       </c>
       <c r="K13">
-        <v>1.039442768528881</v>
+        <v>1.051975642502029</v>
       </c>
       <c r="L13">
-        <v>1.034707580076029</v>
+        <v>1.053022971684719</v>
       </c>
       <c r="M13">
-        <v>1.044810836695194</v>
+        <v>1.063927043168865</v>
       </c>
       <c r="N13">
-        <v>1.033812997814213</v>
+        <v>1.049086809420006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.003485195354512</v>
+        <v>1.041149151791326</v>
       </c>
       <c r="D14">
-        <v>1.025351870569427</v>
+        <v>1.048527720348012</v>
       </c>
       <c r="E14">
-        <v>1.020583507827871</v>
+        <v>1.049593360194523</v>
       </c>
       <c r="F14">
-        <v>1.030907652223656</v>
+        <v>1.060544624152777</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047789868480556</v>
+        <v>1.043646011048659</v>
       </c>
       <c r="J14">
-        <v>1.032749149407565</v>
+        <v>1.047680605918701</v>
       </c>
       <c r="K14">
-        <v>1.039827380853289</v>
+        <v>1.052052664447847</v>
       </c>
       <c r="L14">
-        <v>1.035143889962925</v>
+        <v>1.053114457418462</v>
       </c>
       <c r="M14">
-        <v>1.045285557855561</v>
+        <v>1.064026682083517</v>
       </c>
       <c r="N14">
-        <v>1.034215771657707</v>
+        <v>1.049168432549751</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003936365275643</v>
+        <v>1.041236586160905</v>
       </c>
       <c r="D15">
-        <v>1.025679589395432</v>
+        <v>1.048594650293709</v>
       </c>
       <c r="E15">
-        <v>1.020944282935633</v>
+        <v>1.049669220241417</v>
       </c>
       <c r="F15">
-        <v>1.031291014988312</v>
+        <v>1.06062529320634</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04792175012617</v>
+        <v>1.043666753606287</v>
       </c>
       <c r="J15">
-        <v>1.032996195105908</v>
+        <v>1.04773082881273</v>
       </c>
       <c r="K15">
-        <v>1.040063616657653</v>
+        <v>1.052100121448018</v>
       </c>
       <c r="L15">
-        <v>1.035411945921738</v>
+        <v>1.053170835378535</v>
       </c>
       <c r="M15">
-        <v>1.045577218880542</v>
+        <v>1.06408808474851</v>
       </c>
       <c r="N15">
-        <v>1.034463168189278</v>
+        <v>1.049218726766049</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006542122004616</v>
+        <v>1.041745805213665</v>
       </c>
       <c r="D16">
-        <v>1.027574163404923</v>
+        <v>1.048984492327895</v>
       </c>
       <c r="E16">
-        <v>1.023030551797084</v>
+        <v>1.050111174751138</v>
       </c>
       <c r="F16">
-        <v>1.033507781140278</v>
+        <v>1.061095253883192</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048681007043902</v>
+        <v>1.043787211707483</v>
       </c>
       <c r="J16">
-        <v>1.034422598172576</v>
+        <v>1.048023200236099</v>
       </c>
       <c r="K16">
-        <v>1.041427517512239</v>
+        <v>1.052376359505784</v>
       </c>
       <c r="L16">
-        <v>1.036960576385612</v>
+        <v>1.053499139808895</v>
       </c>
       <c r="M16">
-        <v>1.04726231569458</v>
+        <v>1.064445654267589</v>
       </c>
       <c r="N16">
-        <v>1.035891596911911</v>
+        <v>1.049511513390375</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008159177844189</v>
+        <v>1.042065499203401</v>
       </c>
       <c r="D17">
-        <v>1.02875143041446</v>
+        <v>1.049229275660744</v>
       </c>
       <c r="E17">
-        <v>1.024327466170911</v>
+        <v>1.050388766056383</v>
       </c>
       <c r="F17">
-        <v>1.034885711743599</v>
+        <v>1.06139042642307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049150012545879</v>
+        <v>1.043862531197699</v>
       </c>
       <c r="J17">
-        <v>1.035307381838841</v>
+        <v>1.048206642159137</v>
       </c>
       <c r="K17">
-        <v>1.042273447865147</v>
+        <v>1.052549650850547</v>
       </c>
       <c r="L17">
-        <v>1.037921980926989</v>
+        <v>1.053705216413177</v>
       </c>
       <c r="M17">
-        <v>1.048308519740386</v>
+        <v>1.064670104810959</v>
       </c>
       <c r="N17">
-        <v>1.036777637072469</v>
+        <v>1.049695215821986</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009096226052836</v>
+        <v>1.042252069552165</v>
       </c>
       <c r="D18">
-        <v>1.029434171584148</v>
+        <v>1.049372141556152</v>
       </c>
       <c r="E18">
-        <v>1.025079789854333</v>
+        <v>1.050550811209166</v>
       </c>
       <c r="F18">
-        <v>1.035684993600349</v>
+        <v>1.061562731314339</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04942099877738</v>
+        <v>1.043906376784741</v>
       </c>
       <c r="J18">
-        <v>1.035819939305227</v>
+        <v>1.048313656506668</v>
       </c>
       <c r="K18">
-        <v>1.042763464642527</v>
+        <v>1.052650733525691</v>
       </c>
       <c r="L18">
-        <v>1.03847921427666</v>
+        <v>1.053825467314469</v>
       </c>
       <c r="M18">
-        <v>1.048914931044243</v>
+        <v>1.064801078894893</v>
       </c>
       <c r="N18">
-        <v>1.037290922429247</v>
+        <v>1.049802382142165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009414704694017</v>
+        <v>1.042315701827287</v>
       </c>
       <c r="D19">
-        <v>1.029666307935548</v>
+        <v>1.049420869986761</v>
       </c>
       <c r="E19">
-        <v>1.025335618036431</v>
+        <v>1.050606086548082</v>
       </c>
       <c r="F19">
-        <v>1.035956783444423</v>
+        <v>1.061621505786811</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049512964563973</v>
+        <v>1.043921312216527</v>
       </c>
       <c r="J19">
-        <v>1.035994117077962</v>
+        <v>1.048350148266341</v>
       </c>
       <c r="K19">
-        <v>1.042929976790906</v>
+        <v>1.052685200870181</v>
       </c>
       <c r="L19">
-        <v>1.038668622876068</v>
+        <v>1.053866478180028</v>
       </c>
       <c r="M19">
-        <v>1.04912106031563</v>
+        <v>1.064845747097176</v>
       </c>
       <c r="N19">
-        <v>1.037465347554398</v>
+        <v>1.049838925724322</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007986322633991</v>
+        <v>1.042031188887329</v>
       </c>
       <c r="D20">
-        <v>1.028625529966337</v>
+        <v>1.049203003617606</v>
       </c>
       <c r="E20">
-        <v>1.024188750190442</v>
+        <v>1.050358969587911</v>
       </c>
       <c r="F20">
-        <v>1.034738334363742</v>
+        <v>1.061358743146652</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049099960067388</v>
+        <v>1.043854459122048</v>
       </c>
       <c r="J20">
-        <v>1.03521281871564</v>
+        <v>1.04818695893464</v>
       </c>
       <c r="K20">
-        <v>1.042183040620063</v>
+        <v>1.052531057825948</v>
       </c>
       <c r="L20">
-        <v>1.037819198784106</v>
+        <v>1.05368310117038</v>
       </c>
       <c r="M20">
-        <v>1.048196668915302</v>
+        <v>1.064646017599226</v>
       </c>
       <c r="N20">
-        <v>1.036682939658785</v>
+        <v>1.049675504645052</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.003269200082257</v>
+        <v>1.041107368895332</v>
       </c>
       <c r="D21">
-        <v>1.025195009820103</v>
+        <v>1.048495736780479</v>
       </c>
       <c r="E21">
-        <v>1.020410835292766</v>
+        <v>1.049557110960196</v>
       </c>
       <c r="F21">
-        <v>1.030724166731898</v>
+        <v>1.0605060767762</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047726687980371</v>
+        <v>1.043636092531426</v>
       </c>
       <c r="J21">
-        <v>1.032630870440757</v>
+        <v>1.047656603293636</v>
       </c>
       <c r="K21">
-        <v>1.039714275919608</v>
+        <v>1.052029983144172</v>
       </c>
       <c r="L21">
-        <v>1.03501556818211</v>
+        <v>1.053087514943122</v>
       </c>
       <c r="M21">
-        <v>1.045145937729517</v>
+        <v>1.063997338436612</v>
       </c>
       <c r="N21">
-        <v>1.034097324721199</v>
+        <v>1.049144395838205</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.000244833352693</v>
+        <v>1.040527424870736</v>
       </c>
       <c r="D22">
-        <v>1.023000893265408</v>
+        <v>1.048051855736535</v>
       </c>
       <c r="E22">
-        <v>1.017996233626339</v>
+        <v>1.049054143703947</v>
       </c>
       <c r="F22">
-        <v>1.028158216117126</v>
+        <v>1.059971209642323</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046839207114779</v>
+        <v>1.043498018488933</v>
       </c>
       <c r="J22">
-        <v>1.030974284056971</v>
+        <v>1.047323299625704</v>
       </c>
       <c r="K22">
-        <v>1.038130065864209</v>
+        <v>1.051714990459139</v>
       </c>
       <c r="L22">
-        <v>1.033219417508947</v>
+        <v>1.052713506892939</v>
       </c>
       <c r="M22">
-        <v>1.043191757376341</v>
+        <v>1.063590003682121</v>
       </c>
       <c r="N22">
-        <v>1.032438385794735</v>
+        <v>1.048810618840834</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.001853809803711</v>
+        <v>1.040834778388964</v>
       </c>
       <c r="D23">
-        <v>1.024167649700745</v>
+        <v>1.048287088446035</v>
       </c>
       <c r="E23">
-        <v>1.019280079585579</v>
+        <v>1.049320662376599</v>
       </c>
       <c r="F23">
-        <v>1.029522567612887</v>
+        <v>1.060254634742145</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047311999083701</v>
+        <v>1.043571287660183</v>
       </c>
       <c r="J23">
-        <v>1.031855694393515</v>
+        <v>1.047499975324082</v>
       </c>
       <c r="K23">
-        <v>1.03897298729099</v>
+        <v>1.05188196855017</v>
       </c>
       <c r="L23">
-        <v>1.034174832983918</v>
+        <v>1.052911731436291</v>
       </c>
       <c r="M23">
-        <v>1.044231205614146</v>
+        <v>1.063805890081589</v>
       </c>
       <c r="N23">
-        <v>1.033321047835056</v>
+        <v>1.048987545438969</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008064447446147</v>
+        <v>1.042046691938952</v>
       </c>
       <c r="D24">
-        <v>1.028682431114051</v>
+        <v>1.049214874551647</v>
       </c>
       <c r="E24">
-        <v>1.024251442759325</v>
+        <v>1.050372432925446</v>
       </c>
       <c r="F24">
-        <v>1.034804941563369</v>
+        <v>1.06137305903635</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049122584582258</v>
+        <v>1.043858106814488</v>
       </c>
       <c r="J24">
-        <v>1.03525555858911</v>
+        <v>1.048195852887975</v>
       </c>
       <c r="K24">
-        <v>1.04222390225595</v>
+        <v>1.052539459198904</v>
       </c>
       <c r="L24">
-        <v>1.03786565252719</v>
+        <v>1.053693093942679</v>
       </c>
       <c r="M24">
-        <v>1.048247221282589</v>
+        <v>1.064656901400965</v>
       </c>
       <c r="N24">
-        <v>1.036725740227779</v>
+        <v>1.049684411228821</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01503154985599</v>
+        <v>1.043456897575487</v>
       </c>
       <c r="D25">
-        <v>1.033767851871634</v>
+        <v>1.050294960393523</v>
       </c>
       <c r="E25">
-        <v>1.029858724155327</v>
+        <v>1.051598079190699</v>
       </c>
       <c r="F25">
-        <v>1.040761533175954</v>
+        <v>1.062676245129116</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051122961441234</v>
+        <v>1.044187528891325</v>
       </c>
       <c r="J25">
-        <v>1.039063419763484</v>
+        <v>1.049003993819234</v>
       </c>
       <c r="K25">
-        <v>1.045863642779493</v>
+        <v>1.053302622232869</v>
       </c>
       <c r="L25">
-        <v>1.042010552741454</v>
+        <v>1.05460177348379</v>
       </c>
       <c r="M25">
-        <v>1.052758395641193</v>
+        <v>1.065646638314294</v>
       </c>
       <c r="N25">
-        <v>1.040539009001789</v>
+        <v>1.050493699812897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_167/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_167/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044584707210908</v>
+        <v>1.020409989561747</v>
       </c>
       <c r="D2">
-        <v>1.051159137089707</v>
+        <v>1.037708449204999</v>
       </c>
       <c r="E2">
-        <v>1.052579708349504</v>
+        <v>1.034210154092351</v>
       </c>
       <c r="F2">
-        <v>1.063719870314751</v>
+        <v>1.045382855156878</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044447491456617</v>
+        <v>1.052641316075179</v>
       </c>
       <c r="J2">
-        <v>1.049649007550051</v>
+        <v>1.041996919147905</v>
       </c>
       <c r="K2">
-        <v>1.053911412809507</v>
+        <v>1.04866630054851</v>
       </c>
       <c r="L2">
-        <v>1.055328049148805</v>
+        <v>1.045212605093885</v>
       </c>
       <c r="M2">
-        <v>1.066437747808337</v>
+        <v>1.05624416898263</v>
       </c>
       <c r="N2">
-        <v>1.051139629537196</v>
+        <v>1.043476674291812</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045405323160177</v>
+        <v>1.02421858784716</v>
       </c>
       <c r="D3">
-        <v>1.051788138586206</v>
+        <v>1.040506573516283</v>
       </c>
       <c r="E3">
-        <v>1.053294774325047</v>
+        <v>1.037303923116763</v>
       </c>
       <c r="F3">
-        <v>1.064480036127936</v>
+        <v>1.048667830024556</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044634618538296</v>
+        <v>1.053700905345255</v>
       </c>
       <c r="J3">
-        <v>1.050117576079361</v>
+        <v>1.044070118288067</v>
       </c>
       <c r="K3">
-        <v>1.054353477440171</v>
+        <v>1.050646126969616</v>
       </c>
       <c r="L3">
-        <v>1.055856240017486</v>
+        <v>1.047480745636225</v>
       </c>
       <c r="M3">
-        <v>1.067013116890383</v>
+        <v>1.058713680892333</v>
       </c>
       <c r="N3">
-        <v>1.051608863487563</v>
+        <v>1.045552817612552</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045937104344413</v>
+        <v>1.026640422666356</v>
       </c>
       <c r="D4">
-        <v>1.05219584213004</v>
+        <v>1.042289157388799</v>
       </c>
       <c r="E4">
-        <v>1.053758529399796</v>
+        <v>1.039276727975457</v>
       </c>
       <c r="F4">
-        <v>1.064973012575787</v>
+        <v>1.05076224739369</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044754943806421</v>
+        <v>1.054367268815732</v>
       </c>
       <c r="J4">
-        <v>1.050420869894402</v>
+        <v>1.045386369785097</v>
       </c>
       <c r="K4">
-        <v>1.054639527564404</v>
+        <v>1.051902635831525</v>
       </c>
       <c r="L4">
-        <v>1.05619839885712</v>
+        <v>1.048923146719821</v>
       </c>
       <c r="M4">
-        <v>1.067385849954714</v>
+        <v>1.060284314911471</v>
       </c>
       <c r="N4">
-        <v>1.051912588014609</v>
+        <v>1.046870938337685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046160851893282</v>
+        <v>1.027648667549216</v>
       </c>
       <c r="D5">
-        <v>1.052367405772294</v>
+        <v>1.043032025290679</v>
       </c>
       <c r="E5">
-        <v>1.053953743686296</v>
+        <v>1.040099327031254</v>
       </c>
       <c r="F5">
-        <v>1.065180520694473</v>
+        <v>1.051635480125167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044805346189354</v>
+        <v>1.054642877672256</v>
       </c>
       <c r="J5">
-        <v>1.05054839683712</v>
+        <v>1.045933822460606</v>
       </c>
       <c r="K5">
-        <v>1.054759782769839</v>
+        <v>1.052425123431545</v>
       </c>
       <c r="L5">
-        <v>1.056342332811121</v>
+        <v>1.049523639777844</v>
       </c>
       <c r="M5">
-        <v>1.067542648354779</v>
+        <v>1.060938232965578</v>
       </c>
       <c r="N5">
-        <v>1.052040296060214</v>
+        <v>1.047419168458786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046198430987721</v>
+        <v>1.027817384583662</v>
       </c>
       <c r="D6">
-        <v>1.052396221686969</v>
+        <v>1.043156377973058</v>
       </c>
       <c r="E6">
-        <v>1.053986535722533</v>
+        <v>1.0402370535812</v>
       </c>
       <c r="F6">
-        <v>1.065215377453508</v>
+        <v>1.051781679798023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044813798254882</v>
+        <v>1.054688890241757</v>
       </c>
       <c r="J6">
-        <v>1.050569810434616</v>
+        <v>1.04602540032868</v>
       </c>
       <c r="K6">
-        <v>1.054779974091524</v>
+        <v>1.052512518079905</v>
       </c>
       <c r="L6">
-        <v>1.056366505209782</v>
+        <v>1.049624123914966</v>
       </c>
       <c r="M6">
-        <v>1.067568981393574</v>
+        <v>1.061047659315324</v>
       </c>
       <c r="N6">
-        <v>1.052061740067475</v>
+        <v>1.047510876377937</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04594009333868</v>
+        <v>1.026653933372931</v>
       </c>
       <c r="D7">
-        <v>1.052198133925611</v>
+        <v>1.042299109063924</v>
       </c>
       <c r="E7">
-        <v>1.053761136876351</v>
+        <v>1.039287745929061</v>
       </c>
       <c r="F7">
-        <v>1.064975784287251</v>
+        <v>1.050773943834074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044755618003051</v>
+        <v>1.054370969210537</v>
       </c>
       <c r="J7">
-        <v>1.050422573830078</v>
+        <v>1.045393707867108</v>
       </c>
       <c r="K7">
-        <v>1.054641134423154</v>
+        <v>1.051909639750976</v>
       </c>
       <c r="L7">
-        <v>1.056200321756494</v>
+        <v>1.048931193495748</v>
       </c>
       <c r="M7">
-        <v>1.067387944706252</v>
+        <v>1.060293077442852</v>
       </c>
       <c r="N7">
-        <v>1.051914294370069</v>
+        <v>1.046878286840613</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.044861873976339</v>
+        <v>1.021706124762717</v>
       </c>
       <c r="D8">
-        <v>1.051371565514956</v>
+        <v>1.038659988553501</v>
       </c>
       <c r="E8">
-        <v>1.052821147643609</v>
+        <v>1.035261844662229</v>
       </c>
       <c r="F8">
-        <v>1.063976543216177</v>
+        <v>1.046499609610252</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044510888505213</v>
+        <v>1.053003447282754</v>
       </c>
       <c r="J8">
-        <v>1.049807341215963</v>
+        <v>1.042702883049264</v>
       </c>
       <c r="K8">
-        <v>1.05406080879422</v>
+        <v>1.049340561976345</v>
       </c>
       <c r="L8">
-        <v>1.055506473272832</v>
+        <v>1.045984451325057</v>
       </c>
       <c r="M8">
-        <v>1.066632106254767</v>
+        <v>1.057084504448929</v>
       </c>
       <c r="N8">
-        <v>1.051298188055074</v>
+        <v>1.044183640742887</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042968029646782</v>
+        <v>1.012647226639959</v>
       </c>
       <c r="D9">
-        <v>1.049920473141691</v>
+        <v>1.032025043688446</v>
       </c>
       <c r="E9">
-        <v>1.051172970521424</v>
+        <v>1.027936082793026</v>
       </c>
       <c r="F9">
-        <v>1.062224258667227</v>
+        <v>1.03871930559843</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044073869553238</v>
+        <v>1.050442371265857</v>
       </c>
       <c r="J9">
-        <v>1.04872403987588</v>
+        <v>1.037761149617237</v>
       </c>
       <c r="K9">
-        <v>1.053038299358119</v>
+        <v>1.044619058869261</v>
       </c>
       <c r="L9">
-        <v>1.054286833778494</v>
+        <v>1.040591612024652</v>
       </c>
       <c r="M9">
-        <v>1.065303597499149</v>
+        <v>1.051213940638111</v>
       </c>
       <c r="N9">
-        <v>1.050213348302832</v>
+        <v>1.039234889482561</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041709690055002</v>
+        <v>1.006358536452266</v>
       </c>
       <c r="D10">
-        <v>1.048956841397775</v>
+        <v>1.02744058229187</v>
       </c>
       <c r="E10">
-        <v>1.050079822014488</v>
+        <v>1.022883420847729</v>
       </c>
       <c r="F10">
-        <v>1.061061914963809</v>
+        <v>1.03335145393442</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04377868812741</v>
+        <v>1.04862765351717</v>
       </c>
       <c r="J10">
-        <v>1.04800247170155</v>
+        <v>1.034322127703967</v>
       </c>
       <c r="K10">
-        <v>1.052356776594583</v>
+        <v>1.041331454700368</v>
       </c>
       <c r="L10">
-        <v>1.05347585795932</v>
+        <v>1.036851444747015</v>
       </c>
       <c r="M10">
-        <v>1.064420296798249</v>
+        <v>1.047143562092343</v>
       </c>
       <c r="N10">
-        <v>1.049490755418929</v>
+        <v>1.035790983763713</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041165840355169</v>
+        <v>1.003571395517655</v>
       </c>
       <c r="D11">
-        <v>1.048540495080731</v>
+        <v>1.02541447707428</v>
       </c>
       <c r="E11">
-        <v>1.049607839012735</v>
+        <v>1.020652427033931</v>
       </c>
       <c r="F11">
-        <v>1.060560020870199</v>
+        <v>1.030980886842254</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043649971511835</v>
+        <v>1.047815075058379</v>
       </c>
       <c r="J11">
-        <v>1.04769019243444</v>
+        <v>1.032796351324098</v>
       </c>
       <c r="K11">
-        <v>1.052061723134002</v>
+        <v>1.039872517692767</v>
       </c>
       <c r="L11">
-        <v>1.053125218417605</v>
+        <v>1.03519510264262</v>
       </c>
       <c r="M11">
-        <v>1.064038402141622</v>
+        <v>1.045341279964236</v>
       </c>
       <c r="N11">
-        <v>1.049178032679442</v>
+        <v>1.034263040606376</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040963985455772</v>
+        <v>1.002526053098451</v>
       </c>
       <c r="D12">
-        <v>1.048385984606943</v>
+        <v>1.024655482519098</v>
       </c>
       <c r="E12">
-        <v>1.049432729546504</v>
+        <v>1.019816973740778</v>
       </c>
       <c r="F12">
-        <v>1.060373808854667</v>
+        <v>1.030093106289185</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043602025840192</v>
+        <v>1.047509101527705</v>
       </c>
       <c r="J12">
-        <v>1.047574224155289</v>
+        <v>1.03222388924469</v>
       </c>
       <c r="K12">
-        <v>1.05195213615371</v>
+        <v>1.039325090884621</v>
       </c>
       <c r="L12">
-        <v>1.052995054761019</v>
+        <v>1.034574111400792</v>
       </c>
       <c r="M12">
-        <v>1.063896638424368</v>
+        <v>1.044665620426706</v>
       </c>
       <c r="N12">
-        <v>1.049061899712033</v>
+        <v>1.033689765565152</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.04100727696798</v>
+        <v>1.002750745884549</v>
       </c>
       <c r="D13">
-        <v>1.048419121302361</v>
+        <v>1.024818583577713</v>
       </c>
       <c r="E13">
-        <v>1.049470281764447</v>
+        <v>1.019996491980706</v>
       </c>
       <c r="F13">
-        <v>1.060413742253993</v>
+        <v>1.030283871094858</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043612316427238</v>
+        <v>1.047574923494569</v>
       </c>
       <c r="J13">
-        <v>1.047599098538785</v>
+        <v>1.032346946737994</v>
       </c>
       <c r="K13">
-        <v>1.051975642502029</v>
+        <v>1.039442768528881</v>
       </c>
       <c r="L13">
-        <v>1.053022971684719</v>
+        <v>1.034707580076029</v>
       </c>
       <c r="M13">
-        <v>1.063927043168865</v>
+        <v>1.044810836695194</v>
       </c>
       <c r="N13">
-        <v>1.049086809420006</v>
+        <v>1.033812997814213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041149151791326</v>
+        <v>1.003485195354513</v>
       </c>
       <c r="D14">
-        <v>1.048527720348012</v>
+        <v>1.025351870569428</v>
       </c>
       <c r="E14">
-        <v>1.049593360194523</v>
+        <v>1.020583507827872</v>
       </c>
       <c r="F14">
-        <v>1.060544624152777</v>
+        <v>1.030907652223657</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043646011048659</v>
+        <v>1.047789868480557</v>
       </c>
       <c r="J14">
-        <v>1.047680605918701</v>
+        <v>1.032749149407566</v>
       </c>
       <c r="K14">
-        <v>1.052052664447847</v>
+        <v>1.03982738085329</v>
       </c>
       <c r="L14">
-        <v>1.053114457418462</v>
+        <v>1.035143889962925</v>
       </c>
       <c r="M14">
-        <v>1.064026682083517</v>
+        <v>1.045285557855562</v>
       </c>
       <c r="N14">
-        <v>1.049168432549751</v>
+        <v>1.034215771657708</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041236586160905</v>
+        <v>1.003936365275643</v>
       </c>
       <c r="D15">
-        <v>1.048594650293709</v>
+        <v>1.025679589395432</v>
       </c>
       <c r="E15">
-        <v>1.049669220241417</v>
+        <v>1.020944282935633</v>
       </c>
       <c r="F15">
-        <v>1.06062529320634</v>
+        <v>1.031291014988312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043666753606287</v>
+        <v>1.04792175012617</v>
       </c>
       <c r="J15">
-        <v>1.04773082881273</v>
+        <v>1.032996195105908</v>
       </c>
       <c r="K15">
-        <v>1.052100121448018</v>
+        <v>1.040063616657652</v>
       </c>
       <c r="L15">
-        <v>1.053170835378535</v>
+        <v>1.035411945921738</v>
       </c>
       <c r="M15">
-        <v>1.06408808474851</v>
+        <v>1.045577218880542</v>
       </c>
       <c r="N15">
-        <v>1.049218726766049</v>
+        <v>1.034463168189278</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041745805213665</v>
+        <v>1.006542122004615</v>
       </c>
       <c r="D16">
-        <v>1.048984492327895</v>
+        <v>1.027574163404922</v>
       </c>
       <c r="E16">
-        <v>1.050111174751138</v>
+        <v>1.023030551797083</v>
       </c>
       <c r="F16">
-        <v>1.061095253883192</v>
+        <v>1.033507781140277</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043787211707483</v>
+        <v>1.048681007043901</v>
       </c>
       <c r="J16">
-        <v>1.048023200236099</v>
+        <v>1.034422598172575</v>
       </c>
       <c r="K16">
-        <v>1.052376359505784</v>
+        <v>1.041427517512238</v>
       </c>
       <c r="L16">
-        <v>1.053499139808895</v>
+        <v>1.03696057638561</v>
       </c>
       <c r="M16">
-        <v>1.064445654267589</v>
+        <v>1.047262315694579</v>
       </c>
       <c r="N16">
-        <v>1.049511513390375</v>
+        <v>1.03589159691191</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042065499203401</v>
+        <v>1.00815917784419</v>
       </c>
       <c r="D17">
-        <v>1.049229275660744</v>
+        <v>1.02875143041446</v>
       </c>
       <c r="E17">
-        <v>1.050388766056383</v>
+        <v>1.024327466170911</v>
       </c>
       <c r="F17">
-        <v>1.06139042642307</v>
+        <v>1.034885711743599</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043862531197699</v>
+        <v>1.049150012545879</v>
       </c>
       <c r="J17">
-        <v>1.048206642159137</v>
+        <v>1.035307381838842</v>
       </c>
       <c r="K17">
-        <v>1.052549650850547</v>
+        <v>1.042273447865147</v>
       </c>
       <c r="L17">
-        <v>1.053705216413177</v>
+        <v>1.037921980926989</v>
       </c>
       <c r="M17">
-        <v>1.064670104810959</v>
+        <v>1.048308519740386</v>
       </c>
       <c r="N17">
-        <v>1.049695215821986</v>
+        <v>1.03677763707247</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042252069552165</v>
+        <v>1.009096226052835</v>
       </c>
       <c r="D18">
-        <v>1.049372141556152</v>
+        <v>1.029434171584147</v>
       </c>
       <c r="E18">
-        <v>1.050550811209166</v>
+        <v>1.025079789854332</v>
       </c>
       <c r="F18">
-        <v>1.061562731314339</v>
+        <v>1.035684993600348</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043906376784741</v>
+        <v>1.049420998777379</v>
       </c>
       <c r="J18">
-        <v>1.048313656506668</v>
+        <v>1.035819939305225</v>
       </c>
       <c r="K18">
-        <v>1.052650733525691</v>
+        <v>1.042763464642526</v>
       </c>
       <c r="L18">
-        <v>1.053825467314469</v>
+        <v>1.038479214276659</v>
       </c>
       <c r="M18">
-        <v>1.064801078894893</v>
+        <v>1.048914931044242</v>
       </c>
       <c r="N18">
-        <v>1.049802382142165</v>
+        <v>1.037290922429246</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042315701827287</v>
+        <v>1.009414704694017</v>
       </c>
       <c r="D19">
-        <v>1.049420869986761</v>
+        <v>1.029666307935548</v>
       </c>
       <c r="E19">
-        <v>1.050606086548082</v>
+        <v>1.02533561803643</v>
       </c>
       <c r="F19">
-        <v>1.061621505786811</v>
+        <v>1.035956783444423</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043921312216527</v>
+        <v>1.049512964563973</v>
       </c>
       <c r="J19">
-        <v>1.048350148266341</v>
+        <v>1.035994117077961</v>
       </c>
       <c r="K19">
-        <v>1.052685200870181</v>
+        <v>1.042929976790906</v>
       </c>
       <c r="L19">
-        <v>1.053866478180028</v>
+        <v>1.038668622876068</v>
       </c>
       <c r="M19">
-        <v>1.064845747097176</v>
+        <v>1.049121060315629</v>
       </c>
       <c r="N19">
-        <v>1.049838925724322</v>
+        <v>1.037465347554398</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042031188887329</v>
+        <v>1.007986322633992</v>
       </c>
       <c r="D20">
-        <v>1.049203003617606</v>
+        <v>1.028625529966337</v>
       </c>
       <c r="E20">
-        <v>1.050358969587911</v>
+        <v>1.024188750190442</v>
       </c>
       <c r="F20">
-        <v>1.061358743146652</v>
+        <v>1.034738334363742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043854459122048</v>
+        <v>1.049099960067388</v>
       </c>
       <c r="J20">
-        <v>1.04818695893464</v>
+        <v>1.03521281871564</v>
       </c>
       <c r="K20">
-        <v>1.052531057825948</v>
+        <v>1.042183040620063</v>
       </c>
       <c r="L20">
-        <v>1.05368310117038</v>
+        <v>1.037819198784107</v>
       </c>
       <c r="M20">
-        <v>1.064646017599226</v>
+        <v>1.048196668915303</v>
       </c>
       <c r="N20">
-        <v>1.049675504645052</v>
+        <v>1.036682939658786</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041107368895332</v>
+        <v>1.003269200082257</v>
       </c>
       <c r="D21">
-        <v>1.048495736780479</v>
+        <v>1.025195009820103</v>
       </c>
       <c r="E21">
-        <v>1.049557110960196</v>
+        <v>1.020410835292767</v>
       </c>
       <c r="F21">
-        <v>1.0605060767762</v>
+        <v>1.030724166731899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043636092531426</v>
+        <v>1.047726687980372</v>
       </c>
       <c r="J21">
-        <v>1.047656603293636</v>
+        <v>1.032630870440758</v>
       </c>
       <c r="K21">
-        <v>1.052029983144172</v>
+        <v>1.039714275919609</v>
       </c>
       <c r="L21">
-        <v>1.053087514943122</v>
+        <v>1.035015568182111</v>
       </c>
       <c r="M21">
-        <v>1.063997338436612</v>
+        <v>1.045145937729518</v>
       </c>
       <c r="N21">
-        <v>1.049144395838205</v>
+        <v>1.0340973247212</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040527424870736</v>
+        <v>1.000244833352693</v>
       </c>
       <c r="D22">
-        <v>1.048051855736535</v>
+        <v>1.023000893265407</v>
       </c>
       <c r="E22">
-        <v>1.049054143703947</v>
+        <v>1.017996233626338</v>
       </c>
       <c r="F22">
-        <v>1.059971209642323</v>
+        <v>1.028158216117126</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043498018488933</v>
+        <v>1.046839207114779</v>
       </c>
       <c r="J22">
-        <v>1.047323299625704</v>
+        <v>1.03097428405697</v>
       </c>
       <c r="K22">
-        <v>1.051714990459139</v>
+        <v>1.038130065864208</v>
       </c>
       <c r="L22">
-        <v>1.052713506892939</v>
+        <v>1.033219417508946</v>
       </c>
       <c r="M22">
-        <v>1.063590003682121</v>
+        <v>1.043191757376341</v>
       </c>
       <c r="N22">
-        <v>1.048810618840834</v>
+        <v>1.032438385794735</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040834778388964</v>
+        <v>1.00185380980371</v>
       </c>
       <c r="D23">
-        <v>1.048287088446035</v>
+        <v>1.024167649700745</v>
       </c>
       <c r="E23">
-        <v>1.049320662376599</v>
+        <v>1.019280079585578</v>
       </c>
       <c r="F23">
-        <v>1.060254634742145</v>
+        <v>1.029522567612887</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043571287660183</v>
+        <v>1.047311999083701</v>
       </c>
       <c r="J23">
-        <v>1.047499975324082</v>
+        <v>1.031855694393514</v>
       </c>
       <c r="K23">
-        <v>1.05188196855017</v>
+        <v>1.038972987290989</v>
       </c>
       <c r="L23">
-        <v>1.052911731436291</v>
+        <v>1.034174832983918</v>
       </c>
       <c r="M23">
-        <v>1.063805890081589</v>
+        <v>1.044231205614146</v>
       </c>
       <c r="N23">
-        <v>1.048987545438969</v>
+        <v>1.033321047835056</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042046691938952</v>
+        <v>1.008064447446146</v>
       </c>
       <c r="D24">
-        <v>1.049214874551647</v>
+        <v>1.02868243111405</v>
       </c>
       <c r="E24">
-        <v>1.050372432925446</v>
+        <v>1.024251442759324</v>
       </c>
       <c r="F24">
-        <v>1.06137305903635</v>
+        <v>1.034804941563368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043858106814488</v>
+        <v>1.049122584582258</v>
       </c>
       <c r="J24">
-        <v>1.048195852887975</v>
+        <v>1.035255558589109</v>
       </c>
       <c r="K24">
-        <v>1.052539459198904</v>
+        <v>1.042223902255949</v>
       </c>
       <c r="L24">
-        <v>1.053693093942679</v>
+        <v>1.037865652527188</v>
       </c>
       <c r="M24">
-        <v>1.064656901400965</v>
+        <v>1.048247221282588</v>
       </c>
       <c r="N24">
-        <v>1.049684411228821</v>
+        <v>1.036725740227778</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043456897575487</v>
+        <v>1.01503154985599</v>
       </c>
       <c r="D25">
-        <v>1.050294960393523</v>
+        <v>1.033767851871635</v>
       </c>
       <c r="E25">
-        <v>1.051598079190699</v>
+        <v>1.029858724155327</v>
       </c>
       <c r="F25">
-        <v>1.062676245129116</v>
+        <v>1.040761533175955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044187528891325</v>
+        <v>1.051122961441234</v>
       </c>
       <c r="J25">
-        <v>1.049003993819234</v>
+        <v>1.039063419763485</v>
       </c>
       <c r="K25">
-        <v>1.053302622232869</v>
+        <v>1.045863642779493</v>
       </c>
       <c r="L25">
-        <v>1.05460177348379</v>
+        <v>1.042010552741454</v>
       </c>
       <c r="M25">
-        <v>1.065646638314294</v>
+        <v>1.052758395641193</v>
       </c>
       <c r="N25">
-        <v>1.050493699812897</v>
+        <v>1.040539009001789</v>
       </c>
     </row>
   </sheetData>
